--- a/로스트아크 - 비브린 큐브 기획서/vivrincube_txt_table.xlsx
+++ b/로스트아크 - 비브린 큐브 기획서/vivrincube_txt_table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인 자료\포트폴리오\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4B1CF6-59D8-4FD5-B2EF-00DC31C70D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023293C5-169D-41F2-AF30-E464B70B2AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="info" sheetId="2" r:id="rId1"/>
+    <sheet name="vivrincube_txt_table" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>txt_kr</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -126,7 +123,104 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>font_type</t>
+    <t>…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>데이터 형식</t>
+  </si>
+  <si>
+    <t>단위</t>
+  </si>
+  <si>
+    <t>키값</t>
+  </si>
+  <si>
+    <t>키값 설명</t>
+  </si>
+  <si>
+    <t>연관 테이블</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivrincube_txt_table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비브린 큐브 텍스트 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비브린 큐브에서 등장하는 텍스트 관리를 위한 테이블입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivrincube_txt_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비브린 큐브 텍스트 고유 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000 ~ 39999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">텍스트 한글
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 한국 빌드인 경우, 해당 칼럼 사용</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">텍스트 영문
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 글로벌 빌드인 경우, 해당 칼럼 사용</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +252,52 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFC000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +307,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,16 +327,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -202,18 +346,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,173 +725,282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF78A853-63E0-4F6D-8AA6-BCD9099CC3E4}">
+  <dimension ref="B2:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE386FE-55B6-41F9-92F6-3484105CF4A5}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="37.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>30000</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>104351</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>30001</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>104352</v>
-      </c>
-      <c r="B4" s="3">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>30002</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>104353</v>
-      </c>
-      <c r="B5" s="3">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>30003</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>104354</v>
-      </c>
-      <c r="B6" s="3">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>30004</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>104355</v>
-      </c>
-      <c r="B7" s="3">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>30005</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>104356</v>
-      </c>
-      <c r="B8" s="3">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>30006</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>104357</v>
-      </c>
-      <c r="B9" s="3">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>30007</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>104358</v>
-      </c>
-      <c r="B10" s="3">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>30008</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>30009</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>104359</v>
-      </c>
-      <c r="B11" s="3">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>104360</v>
-      </c>
-      <c r="B12" s="3">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/로스트아크 - 비브린 큐브 기획서/vivrincube_txt_table.xlsx
+++ b/로스트아크 - 비브린 큐브 기획서/vivrincube_txt_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인 자료\포트폴리오\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinWooChi\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023293C5-169D-41F2-AF30-E464B70B2AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435668C5-AA87-4704-B44C-8C4DC5A0B188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -730,35 +730,35 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="26.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
@@ -781,7 +781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>36</v>
       </c>
@@ -804,7 +804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="33" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>0</v>
       </c>
@@ -827,7 +827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="33" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
@@ -864,15 +864,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.3984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>30000</v>
       </c>
@@ -894,7 +894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>30001</v>
       </c>
@@ -905,7 +905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>30002</v>
       </c>
@@ -916,7 +916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>30003</v>
       </c>
@@ -927,7 +927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>30004</v>
       </c>
@@ -938,7 +938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>30005</v>
       </c>
@@ -949,7 +949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>30006</v>
       </c>
@@ -960,7 +960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>30007</v>
       </c>
@@ -971,7 +971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>30008</v>
       </c>
@@ -982,7 +982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="87" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>30009</v>
       </c>
@@ -993,7 +993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
